--- a/Budget/web_free.xlsx
+++ b/Budget/web_free.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
-  <si>
-    <t>channelGrouping</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+  <si>
+    <t>channel.grouping</t>
   </si>
   <si>
     <t>metric</t>
   </si>
   <si>
     <t>201501</t>
+  </si>
+  <si>
+    <t>201502</t>
   </si>
   <si>
     <t>(Other)</t>
@@ -117,302 +120,386 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>4596.0</v>
       </c>
+      <c r="D2" t="n">
+        <v>7344.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>37346.0</v>
       </c>
+      <c r="D3" t="n">
+        <v>39656.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>9880.0</v>
       </c>
+      <c r="D4" t="n">
+        <v>23156.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>82255.0</v>
       </c>
+      <c r="D5" t="n">
+        <v>88383.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>49927.0</v>
       </c>
+      <c r="D6" t="n">
+        <v>61341.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>134796.0</v>
       </c>
+      <c r="D7" t="n">
+        <v>134139.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>680.0</v>
       </c>
+      <c r="D8" t="n">
+        <v>743.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>10977.0</v>
       </c>
+      <c r="D9" t="n">
+        <v>10340.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
         <v>2161.0</v>
       </c>
+      <c r="D10" t="n">
+        <v>1996.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>805.0</v>
       </c>
+      <c r="D11" t="n">
+        <v>1433.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>12820.0</v>
       </c>
+      <c r="D12" t="n">
+        <v>13650.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>4722.0</v>
       </c>
+      <c r="D13" t="n">
+        <v>14158.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
         <v>30872.0</v>
       </c>
+      <c r="D14" t="n">
+        <v>29083.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>15282.0</v>
       </c>
+      <c r="D15" t="n">
+        <v>16823.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>79044.0</v>
       </c>
+      <c r="D16" t="n">
+        <v>74237.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
         <v>112.0</v>
       </c>
+      <c r="D17" t="n">
+        <v>128.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
         <v>4388.0</v>
       </c>
+      <c r="D18" t="n">
+        <v>3057.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
         <v>694.0</v>
       </c>
+      <c r="D19" t="n">
+        <v>478.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
         <v>4.0</v>
       </c>
+      <c r="D20" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
         <v>561.0</v>
       </c>
+      <c r="D21" t="n">
+        <v>653.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
         <v>76.0</v>
       </c>
+      <c r="D22" t="n">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
         <v>2488.0</v>
       </c>
+      <c r="D23" t="n">
+        <v>2820.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
         <v>2002.0</v>
       </c>
+      <c r="D24" t="n">
+        <v>2647.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
         <v>5087.0</v>
       </c>
+      <c r="D25" t="n">
+        <v>5643.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
         <v>5.0</v>
       </c>
+      <c r="D26" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
         <v>241.0</v>
       </c>
+      <c r="D27" t="n">
+        <v>205.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
         <v>86.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>39.0</v>
       </c>
     </row>
   </sheetData>
